--- a/Excel - Project 10.xlsx
+++ b/Excel - Project 10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bambooschool-my.sharepoint.com/personal/thuong_vo_bambooschool_edu_vn/Documents/2024 - 2025/2. CHUYÊN MÔN/MOS 2019/MOS Excel 2019/Project 10 MOS Excel 2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel\Excel2019_Project4_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{42ABAC2F-D40B-4894-A9B9-9BE3A0465643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D87ED6F8-0275-404A-A4DF-6DA28A5ECD3F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBD520B-1D25-45D5-8117-0017033DE5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="3" xr2:uid="{3B5558ED-EA98-4D35-AFB1-B14104F0596C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{3B5558ED-EA98-4D35-AFB1-B14104F0596C}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="83">
   <si>
     <t>Dung</t>
   </si>
@@ -278,6 +278,21 @@
   </si>
   <si>
     <t>Current Year</t>
+  </si>
+  <si>
+    <t>microsoft word (office 2019)</t>
+  </si>
+  <si>
+    <t>ic3 gs6</t>
+  </si>
+  <si>
+    <t>microsoft word (office 2016)</t>
+  </si>
+  <si>
+    <t>microsoft office specialist - expert</t>
+  </si>
+  <si>
+    <t>hiddencode</t>
   </si>
 </sst>
 </file>
@@ -427,7 +442,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -456,13 +471,30 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency 2" xfId="2" xr:uid="{9A7AC8C1-5E91-4861-946A-44FE04E3D636}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="61">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -6116,22 +6148,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B2BBB874-9998-478E-A6F4-558A00B94501}" name="Table5" displayName="Table5" ref="A3:M8" totalsRowCount="1" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B2BBB874-9998-478E-A6F4-558A00B94501}" name="Table5" displayName="Table5" ref="A3:M8" totalsRowCount="1" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
   <autoFilter ref="A3:M7" xr:uid="{EFA123C8-64A3-4E7C-9985-C28A04A26884}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{67288C0B-DAA7-45D8-9AA0-A51D105D2A93}" name="Exam" totalsRowLabel="Total" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{90A80ABE-9527-4DC6-80A9-EAF85FA32709}" name="January" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{89E68011-EBB6-413D-AA25-DB8880F73F88}" name="February" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{22527A9C-CE7E-4D96-AF74-D9D9AD0ADEC6}" name="March" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{14103C14-7F38-43F3-B5D4-9908D7DF8578}" name="April" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{E62F6BB0-D8A8-4244-B333-05C385DFDF6F}" name="May" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{924F028B-9A1B-4B79-9192-D3DCE62F8408}" name="June" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{68FA9F6C-E6B5-4A04-84E9-230B572361DF}" name="July" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{79479519-68CD-4717-BA6B-433F799F9DF6}" name="August" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{04DC7195-7BFE-49E2-8394-BEEB89FDDDDB}" name="September" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{F0028B68-E37E-431C-8A5F-83B71A462655}" name="October" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{EA6DA828-1BA4-4A3B-95AB-14050C1CB202}" name="November" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="13" xr3:uid="{B94B0312-56C4-4335-9889-EE0D8FD0CFBC}" name="December" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{67288C0B-DAA7-45D8-9AA0-A51D105D2A93}" name="Exam" totalsRowLabel="Total" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{90A80ABE-9527-4DC6-80A9-EAF85FA32709}" name="January" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{89E68011-EBB6-413D-AA25-DB8880F73F88}" name="February" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{22527A9C-CE7E-4D96-AF74-D9D9AD0ADEC6}" name="March" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{14103C14-7F38-43F3-B5D4-9908D7DF8578}" name="April" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{E62F6BB0-D8A8-4244-B333-05C385DFDF6F}" name="May" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{924F028B-9A1B-4B79-9192-D3DCE62F8408}" name="June" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{68FA9F6C-E6B5-4A04-84E9-230B572361DF}" name="July" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{79479519-68CD-4717-BA6B-433F799F9DF6}" name="August" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="10" xr3:uid="{04DC7195-7BFE-49E2-8394-BEEB89FDDDDB}" name="September" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{F0028B68-E37E-431C-8A5F-83B71A462655}" name="October" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{EA6DA828-1BA4-4A3B-95AB-14050C1CB202}" name="November" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="13" xr3:uid="{B94B0312-56C4-4335-9889-EE0D8FD0CFBC}" name="December" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6143,35 +6175,38 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F4D0B4AD-6773-4114-9544-C008C92DCD04}" name="Category" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{5D8BD3C7-D3BD-4D57-A80F-50764E0D5CA9}" name="Subcategory"/>
-    <tableColumn id="3" xr3:uid="{3C01ABEF-B5CA-4E22-A243-C799F2D40267}" name="Jan" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{FF81069D-0D9B-4E7B-8ADA-2E562777ECEC}" name="Feb" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{A0FD3BB6-266A-4947-8FE8-73296883F54B}" name="Mar" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{49181824-49A6-4192-9C7C-4AED25D501D0}" name="Apr" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{8E3FD57A-6CE9-46E2-8EE3-6E3702904EAA}" name="May" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="3" xr3:uid="{3C01ABEF-B5CA-4E22-A243-C799F2D40267}" name="Jan" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{FF81069D-0D9B-4E7B-8ADA-2E562777ECEC}" name="Feb" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{A0FD3BB6-266A-4947-8FE8-73296883F54B}" name="Mar" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{49181824-49A6-4192-9C7C-4AED25D501D0}" name="Apr" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{8E3FD57A-6CE9-46E2-8EE3-6E3702904EAA}" name="May" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>SUM(Table4[[#This Row],[Jan]:[Apr]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BB010216-4D53-4AF7-BF91-D61A3E544DE3}" name="Monthly Average" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="8" xr3:uid="{BB010216-4D53-4AF7-BF91-D61A3E544DE3}" name="Monthly Average" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>AVERAGE(Table4[[#This Row],[Jan]:[May]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{6688F4A5-EBC6-4092-B72C-751E7B244DA9}" name="Total Level %" dataCellStyle="Percent">
       <calculatedColumnFormula>Table4[[#This Row],[May]]/Table4[[#This Row],[Monthly Average]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{14998DE1-D968-4FDC-AA73-587F9CCDFCEC}" name="Total Notice" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{14998DE1-D968-4FDC-AA73-587F9CCDFCEC}" name="Total Notice" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3698665F-2D54-4899-996D-D59195580BDC}" name="Table6" displayName="Table6" ref="A3:F21" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A3:F21" xr:uid="{05F03A83-CF49-45CD-90FC-E81139C48096}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{68E34B03-B2C4-4AAD-A8E2-EDA01A53D123}" name="Program" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{30090B29-D7A1-49D0-9952-EE1E8A208140}" name="City Code" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{07B8686D-0B28-4B94-A704-05173D0CD315}" name="Registered Students" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{1A2C275D-6363-4B50-A6BE-CEEC493C246C}" name="Tutors Available" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{3F3A1A52-666F-4984-AEC8-B4388A6510C6}" name="Average cost per student" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{DE98307F-FE26-42DF-967E-677B68A57FFC}" name="Total" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3698665F-2D54-4899-996D-D59195580BDC}" name="Table6" displayName="Table6" ref="A3:G21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A3:G21" xr:uid="{05F03A83-CF49-45CD-90FC-E81139C48096}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{68E34B03-B2C4-4AAD-A8E2-EDA01A53D123}" name="Program" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{AD0FEBD1-8CFB-4924-8708-488A8E3165D5}" name="hiddencode" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{30090B29-D7A1-49D0-9952-EE1E8A208140}" name="City Code" dataDxfId="14">
+      <calculatedColumnFormula>Table6[[#This Row],[hiddencode]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{07B8686D-0B28-4B94-A704-05173D0CD315}" name="Registered Students" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{1A2C275D-6363-4B50-A6BE-CEEC493C246C}" name="Tutors Available" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{3F3A1A52-666F-4984-AEC8-B4388A6510C6}" name="Average cost per student" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{DE98307F-FE26-42DF-967E-677B68A57FFC}" name="Total" dataDxfId="10">
       <calculatedColumnFormula>Table6[[#This Row],[Registered Students]]*Table6[[#This Row],[Average cost per student]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6180,17 +6215,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CF2B4C5-A3AF-483F-AF27-98319979184D}" name="Table63" displayName="Table63" ref="A3:F21" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CF2B4C5-A3AF-483F-AF27-98319979184D}" name="Table63" displayName="Table63" ref="A3:F21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A3:F21" xr:uid="{05F03A83-CF49-45CD-90FC-E81139C48096}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{18F70BA2-5234-46B3-9AEA-A10DE0308314}" name="Program" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{0773C4D4-138F-4C91-ACD1-CA3FD2760097}" name="Course" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{1E31907F-8755-4561-B575-5EB9BFEE2096}" name="Books Sold" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{18F70BA2-5234-46B3-9AEA-A10DE0308314}" name="Program" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{0773C4D4-138F-4C91-ACD1-CA3FD2760097}" name="Course" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{1E31907F-8755-4561-B575-5EB9BFEE2096}" name="Books Sold" dataDxfId="4">
       <calculatedColumnFormula>RANDBETWEEN(5000,20000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{94B2E37B-8F8C-4DF9-9C38-C114017E13E7}" name="Tutors Available" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{B07B12DB-EAFB-4728-B0FB-99B58CAB962F}" name="Average cost per student" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{27DDFDE2-394E-47C9-BD1D-046EB095B308}" name="Bonus" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{94B2E37B-8F8C-4DF9-9C38-C114017E13E7}" name="Tutors Available" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{B07B12DB-EAFB-4728-B0FB-99B58CAB962F}" name="Average cost per student" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{27DDFDE2-394E-47C9-BD1D-046EB095B308}" name="Bonus" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6499,21 +6534,21 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.31640625" customWidth="1"/>
-    <col min="2" max="2" width="12.2265625" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="1.1000000000000001">
+    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -6524,7 +6559,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6532,7 +6567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -6540,7 +6575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -6548,7 +6583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -6569,12 +6604,12 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="13" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -6615,7 +6650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -6656,7 +6691,7 @@
         <v>5211</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -6697,7 +6732,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -6738,7 +6773,7 @@
         <v>6290</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -6779,7 +6814,7 @@
         <v>5706</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -6850,23 +6885,23 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.2265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.31640625" customWidth="1"/>
-    <col min="3" max="6" width="18.2265625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="6" width="18.1796875" customWidth="1"/>
     <col min="7" max="7" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.08984375" customWidth="1"/>
     <col min="9" max="9" width="16.453125" customWidth="1"/>
-    <col min="10" max="10" width="13.31640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -6898,7 +6933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -6931,7 +6966,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -6961,7 +6996,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6994,7 +7029,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -7024,7 +7059,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -7067,28 +7102,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51596C52-85E2-4A1C-8701-65E0DD2C368A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.54296875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="13" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
@@ -7099,7 +7134,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -7110,7 +7145,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -7121,7 +7156,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -7132,7 +7167,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -7152,427 +7187,504 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E480995B-CC74-4D7F-AB6C-E62EA3EAF679}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.6796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="14.6796875" style="10" customWidth="1"/>
-    <col min="7" max="8" width="9.08984375" style="10"/>
-    <col min="9" max="9" width="11" style="10" customWidth="1"/>
-    <col min="10" max="10" width="9.86328125" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="9.08984375" style="10"/>
+    <col min="1" max="1" width="31.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6328125" style="10" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="14.6328125" style="10" customWidth="1"/>
+    <col min="8" max="9" width="9.08984375" style="10"/>
+    <col min="10" max="10" width="11" style="10" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.08984375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="B1" s="16"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="12" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="13">
+        <v>78</v>
+      </c>
+      <c r="C4" s="13" t="str">
+        <f>Table6[[#This Row],[hiddencode]]</f>
+        <v>microsoft word (office 2019)</v>
+      </c>
+      <c r="D4" s="13">
         <v>11</v>
       </c>
-      <c r="D4" s="13">
+      <c r="E4" s="13">
         <v>5</v>
       </c>
-      <c r="E4" s="14">
+      <c r="F4" s="14">
         <v>22</v>
       </c>
-      <c r="F4" s="14">
+      <c r="G4" s="14">
         <f>Table6[[#This Row],[Registered Students]]*Table6[[#This Row],[Average cost per student]]</f>
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="13">
+        <v>79</v>
+      </c>
+      <c r="C5" s="13" t="str">
+        <f>Table6[[#This Row],[hiddencode]]</f>
+        <v>ic3 gs6</v>
+      </c>
+      <c r="D5" s="13">
         <v>9</v>
       </c>
-      <c r="D5" s="13">
+      <c r="E5" s="13">
         <v>2</v>
       </c>
-      <c r="E5" s="14">
+      <c r="F5" s="14">
         <v>33</v>
       </c>
-      <c r="F5" s="14">
+      <c r="G5" s="14">
         <f>Table6[[#This Row],[Registered Students]]*Table6[[#This Row],[Average cost per student]]</f>
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="13">
+        <v>79</v>
+      </c>
+      <c r="C6" s="13" t="str">
+        <f>Table6[[#This Row],[hiddencode]]</f>
+        <v>ic3 gs6</v>
+      </c>
+      <c r="D6" s="13">
         <v>7</v>
       </c>
-      <c r="D6" s="13">
+      <c r="E6" s="13">
         <v>3</v>
       </c>
-      <c r="E6" s="14">
+      <c r="F6" s="14">
         <v>28</v>
       </c>
-      <c r="F6" s="14">
+      <c r="G6" s="14">
         <f>Table6[[#This Row],[Registered Students]]*Table6[[#This Row],[Average cost per student]]</f>
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="13">
+        <v>80</v>
+      </c>
+      <c r="C7" s="13" t="str">
+        <f>Table6[[#This Row],[hiddencode]]</f>
+        <v>microsoft word (office 2016)</v>
+      </c>
+      <c r="D7" s="13">
         <v>8</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>2</v>
       </c>
-      <c r="E7" s="14">
+      <c r="F7" s="14">
         <v>45</v>
       </c>
-      <c r="F7" s="14">
+      <c r="G7" s="14">
         <f>Table6[[#This Row],[Registered Students]]*Table6[[#This Row],[Average cost per student]]</f>
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="13">
+        <v>78</v>
+      </c>
+      <c r="C8" s="13" t="str">
+        <f>Table6[[#This Row],[hiddencode]]</f>
+        <v>microsoft word (office 2019)</v>
+      </c>
+      <c r="D8" s="13">
         <v>10</v>
       </c>
-      <c r="D8" s="13">
+      <c r="E8" s="13">
         <v>4</v>
       </c>
-      <c r="E8" s="14">
+      <c r="F8" s="14">
         <v>44</v>
       </c>
-      <c r="F8" s="14">
+      <c r="G8" s="14">
         <f>Table6[[#This Row],[Registered Students]]*Table6[[#This Row],[Average cost per student]]</f>
         <v>440</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="13">
+        <v>78</v>
+      </c>
+      <c r="C9" s="13" t="str">
+        <f>Table6[[#This Row],[hiddencode]]</f>
+        <v>microsoft word (office 2019)</v>
+      </c>
+      <c r="D9" s="13">
         <v>9</v>
       </c>
-      <c r="D9" s="13">
+      <c r="E9" s="13">
         <v>2</v>
       </c>
-      <c r="E9" s="14">
+      <c r="F9" s="14">
         <v>42</v>
       </c>
-      <c r="F9" s="14">
+      <c r="G9" s="14">
         <f>Table6[[#This Row],[Registered Students]]*Table6[[#This Row],[Average cost per student]]</f>
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="13">
-        <v>5</v>
+        <v>81</v>
+      </c>
+      <c r="C10" s="13" t="str">
+        <f>Table6[[#This Row],[hiddencode]]</f>
+        <v>microsoft office specialist - expert</v>
       </c>
       <c r="D10" s="13">
         <v>5</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
+        <v>5</v>
+      </c>
+      <c r="F10" s="14">
         <v>23</v>
       </c>
-      <c r="F10" s="14">
+      <c r="G10" s="14">
         <f>Table6[[#This Row],[Registered Students]]*Table6[[#This Row],[Average cost per student]]</f>
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="13">
+        <v>79</v>
+      </c>
+      <c r="C11" s="13" t="str">
+        <f>Table6[[#This Row],[hiddencode]]</f>
+        <v>ic3 gs6</v>
+      </c>
+      <c r="D11" s="13">
         <v>8</v>
       </c>
-      <c r="D11" s="13">
+      <c r="E11" s="13">
         <v>3</v>
       </c>
-      <c r="E11" s="14">
+      <c r="F11" s="14">
         <v>30</v>
       </c>
-      <c r="F11" s="14">
+      <c r="G11" s="14">
         <f>Table6[[#This Row],[Registered Students]]*Table6[[#This Row],[Average cost per student]]</f>
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="13">
+        <v>79</v>
+      </c>
+      <c r="C12" s="13" t="str">
+        <f>Table6[[#This Row],[hiddencode]]</f>
+        <v>ic3 gs6</v>
+      </c>
+      <c r="D12" s="13">
         <v>6</v>
       </c>
-      <c r="D12" s="13">
+      <c r="E12" s="13">
         <v>4</v>
       </c>
-      <c r="E12" s="14">
+      <c r="F12" s="14">
         <v>37</v>
       </c>
-      <c r="F12" s="14">
+      <c r="G12" s="14">
         <f>Table6[[#This Row],[Registered Students]]*Table6[[#This Row],[Average cost per student]]</f>
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="13">
+        <v>81</v>
+      </c>
+      <c r="C13" s="13" t="str">
+        <f>Table6[[#This Row],[hiddencode]]</f>
+        <v>microsoft office specialist - expert</v>
+      </c>
+      <c r="D13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="13">
+      <c r="E13" s="13">
         <v>2</v>
       </c>
-      <c r="E13" s="14">
+      <c r="F13" s="14">
         <v>28</v>
       </c>
-      <c r="F13" s="14">
+      <c r="G13" s="14">
         <f>Table6[[#This Row],[Registered Students]]*Table6[[#This Row],[Average cost per student]]</f>
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="13">
+        <v>80</v>
+      </c>
+      <c r="C14" s="13" t="str">
+        <f>Table6[[#This Row],[hiddencode]]</f>
+        <v>microsoft word (office 2016)</v>
+      </c>
+      <c r="D14" s="13">
         <v>14</v>
       </c>
-      <c r="D14" s="13">
+      <c r="E14" s="13">
         <v>2</v>
       </c>
-      <c r="E14" s="14">
+      <c r="F14" s="14">
         <v>33</v>
       </c>
-      <c r="F14" s="14">
+      <c r="G14" s="14">
         <f>Table6[[#This Row],[Registered Students]]*Table6[[#This Row],[Average cost per student]]</f>
         <v>462</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="13">
+        <v>78</v>
+      </c>
+      <c r="C15" s="13" t="str">
+        <f>Table6[[#This Row],[hiddencode]]</f>
+        <v>microsoft word (office 2019)</v>
+      </c>
+      <c r="D15" s="13">
         <v>8</v>
       </c>
-      <c r="D15" s="13">
+      <c r="E15" s="13">
         <v>5</v>
       </c>
-      <c r="E15" s="14">
+      <c r="F15" s="14">
         <v>21</v>
       </c>
-      <c r="F15" s="14">
+      <c r="G15" s="14">
         <f>Table6[[#This Row],[Registered Students]]*Table6[[#This Row],[Average cost per student]]</f>
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="13">
+        <v>79</v>
+      </c>
+      <c r="C16" s="13" t="str">
+        <f>Table6[[#This Row],[hiddencode]]</f>
+        <v>ic3 gs6</v>
+      </c>
+      <c r="D16" s="13">
         <v>8</v>
       </c>
-      <c r="D16" s="13">
+      <c r="E16" s="13">
         <v>4</v>
       </c>
-      <c r="E16" s="14">
+      <c r="F16" s="14">
         <v>22</v>
       </c>
-      <c r="F16" s="14">
+      <c r="G16" s="14">
         <f>Table6[[#This Row],[Registered Students]]*Table6[[#This Row],[Average cost per student]]</f>
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="13">
+        <v>79</v>
+      </c>
+      <c r="C17" s="13" t="str">
+        <f>Table6[[#This Row],[hiddencode]]</f>
+        <v>ic3 gs6</v>
+      </c>
+      <c r="D17" s="13">
         <v>12</v>
       </c>
-      <c r="D17" s="13">
+      <c r="E17" s="13">
         <v>2</v>
       </c>
-      <c r="E17" s="14">
+      <c r="F17" s="14">
         <v>21</v>
       </c>
-      <c r="F17" s="14">
+      <c r="G17" s="14">
         <f>Table6[[#This Row],[Registered Students]]*Table6[[#This Row],[Average cost per student]]</f>
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="13">
+        <v>79</v>
+      </c>
+      <c r="C18" s="13" t="str">
+        <f>Table6[[#This Row],[hiddencode]]</f>
+        <v>ic3 gs6</v>
+      </c>
+      <c r="D18" s="13">
         <v>8</v>
       </c>
-      <c r="D18" s="13">
+      <c r="E18" s="13">
         <v>4</v>
       </c>
-      <c r="E18" s="14">
+      <c r="F18" s="14">
         <v>48</v>
       </c>
-      <c r="F18" s="14">
+      <c r="G18" s="14">
         <f>Table6[[#This Row],[Registered Students]]*Table6[[#This Row],[Average cost per student]]</f>
         <v>384</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="13">
+        <v>81</v>
+      </c>
+      <c r="C19" s="13" t="str">
+        <f>Table6[[#This Row],[hiddencode]]</f>
+        <v>microsoft office specialist - expert</v>
+      </c>
+      <c r="D19" s="13">
         <v>12</v>
       </c>
-      <c r="D19" s="13">
+      <c r="E19" s="13">
         <v>4</v>
       </c>
-      <c r="E19" s="14">
+      <c r="F19" s="14">
         <v>50</v>
       </c>
-      <c r="F19" s="14">
+      <c r="G19" s="14">
         <f>Table6[[#This Row],[Registered Students]]*Table6[[#This Row],[Average cost per student]]</f>
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="13">
+        <v>80</v>
+      </c>
+      <c r="C20" s="13" t="str">
+        <f>Table6[[#This Row],[hiddencode]]</f>
+        <v>microsoft word (office 2016)</v>
+      </c>
+      <c r="D20" s="13">
         <v>14</v>
       </c>
-      <c r="D20" s="13">
+      <c r="E20" s="13">
         <v>4</v>
       </c>
-      <c r="E20" s="14">
+      <c r="F20" s="14">
         <v>38</v>
       </c>
-      <c r="F20" s="14">
+      <c r="G20" s="14">
         <f>Table6[[#This Row],[Registered Students]]*Table6[[#This Row],[Average cost per student]]</f>
         <v>532</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="13">
+        <v>79</v>
+      </c>
+      <c r="C21" s="13" t="str">
+        <f>Table6[[#This Row],[hiddencode]]</f>
+        <v>ic3 gs6</v>
+      </c>
+      <c r="D21" s="13">
         <v>9</v>
       </c>
-      <c r="D21" s="13">
+      <c r="E21" s="13">
         <v>5</v>
       </c>
-      <c r="E21" s="14">
+      <c r="F21" s="14">
         <v>47</v>
       </c>
-      <c r="F21" s="14">
+      <c r="G21" s="14">
         <f>Table6[[#This Row],[Registered Students]]*Table6[[#This Row],[Average cost per student]]</f>
         <v>423</v>
       </c>
@@ -7590,31 +7702,31 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.6796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="14.6796875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="31.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="14.6328125" style="10" customWidth="1"/>
     <col min="7" max="8" width="9.08984375" style="10"/>
     <col min="9" max="9" width="11" style="10" customWidth="1"/>
-    <col min="10" max="10" width="9.86328125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" style="10" customWidth="1"/>
     <col min="11" max="16384" width="9.08984375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="12" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
@@ -7634,7 +7746,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>46</v>
       </c>
@@ -7643,7 +7755,7 @@
       </c>
       <c r="C4" s="13">
         <f t="shared" ref="C4:C21" ca="1" si="0">RANDBETWEEN(5000,20000)</f>
-        <v>14985</v>
+        <v>15630</v>
       </c>
       <c r="D4" s="13">
         <v>5</v>
@@ -7653,7 +7765,7 @@
       </c>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>47</v>
       </c>
@@ -7662,7 +7774,7 @@
       </c>
       <c r="C5" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>8732</v>
+        <v>18434</v>
       </c>
       <c r="D5" s="13">
         <v>2</v>
@@ -7672,7 +7784,7 @@
       </c>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>48</v>
       </c>
@@ -7681,7 +7793,7 @@
       </c>
       <c r="C6" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>17872</v>
+        <v>11495</v>
       </c>
       <c r="D6" s="13">
         <v>3</v>
@@ -7691,7 +7803,7 @@
       </c>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -7700,7 +7812,7 @@
       </c>
       <c r="C7" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>13713</v>
+        <v>13259</v>
       </c>
       <c r="D7" s="13">
         <v>2</v>
@@ -7710,7 +7822,7 @@
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -7719,7 +7831,7 @@
       </c>
       <c r="C8" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>15304</v>
+        <v>16811</v>
       </c>
       <c r="D8" s="13">
         <v>4</v>
@@ -7729,7 +7841,7 @@
       </c>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>51</v>
       </c>
@@ -7738,7 +7850,7 @@
       </c>
       <c r="C9" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6489</v>
+        <v>5434</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
@@ -7748,7 +7860,7 @@
       </c>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>52</v>
       </c>
@@ -7757,7 +7869,7 @@
       </c>
       <c r="C10" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10295</v>
+        <v>17963</v>
       </c>
       <c r="D10" s="13">
         <v>5</v>
@@ -7767,7 +7879,7 @@
       </c>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>53</v>
       </c>
@@ -7776,7 +7888,7 @@
       </c>
       <c r="C11" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>14891</v>
+        <v>14566</v>
       </c>
       <c r="D11" s="13">
         <v>3</v>
@@ -7786,7 +7898,7 @@
       </c>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>54</v>
       </c>
@@ -7795,7 +7907,7 @@
       </c>
       <c r="C12" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>14367</v>
+        <v>13243</v>
       </c>
       <c r="D12" s="13">
         <v>4</v>
@@ -7805,7 +7917,7 @@
       </c>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>55</v>
       </c>
@@ -7814,7 +7926,7 @@
       </c>
       <c r="C13" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10810</v>
+        <v>9833</v>
       </c>
       <c r="D13" s="13">
         <v>2</v>
@@ -7824,7 +7936,7 @@
       </c>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>56</v>
       </c>
@@ -7833,7 +7945,7 @@
       </c>
       <c r="C14" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>6290</v>
+        <v>18960</v>
       </c>
       <c r="D14" s="13">
         <v>2</v>
@@ -7843,7 +7955,7 @@
       </c>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>57</v>
       </c>
@@ -7852,7 +7964,7 @@
       </c>
       <c r="C15" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9466</v>
+        <v>14552</v>
       </c>
       <c r="D15" s="13">
         <v>5</v>
@@ -7862,7 +7974,7 @@
       </c>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>58</v>
       </c>
@@ -7871,7 +7983,7 @@
       </c>
       <c r="C16" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>15735</v>
+        <v>12980</v>
       </c>
       <c r="D16" s="13">
         <v>4</v>
@@ -7881,7 +7993,7 @@
       </c>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>59</v>
       </c>
@@ -7890,7 +8002,7 @@
       </c>
       <c r="C17" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>17536</v>
+        <v>7439</v>
       </c>
       <c r="D17" s="13">
         <v>2</v>
@@ -7900,7 +8012,7 @@
       </c>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>60</v>
       </c>
@@ -7909,7 +8021,7 @@
       </c>
       <c r="C18" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>9623</v>
+        <v>7458</v>
       </c>
       <c r="D18" s="13">
         <v>4</v>
@@ -7919,7 +8031,7 @@
       </c>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>61</v>
       </c>
@@ -7928,7 +8040,7 @@
       </c>
       <c r="C19" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>11451</v>
+        <v>9875</v>
       </c>
       <c r="D19" s="13">
         <v>4</v>
@@ -7938,7 +8050,7 @@
       </c>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>62</v>
       </c>
@@ -7947,7 +8059,7 @@
       </c>
       <c r="C20" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>13204</v>
+        <v>17237</v>
       </c>
       <c r="D20" s="13">
         <v>4</v>
@@ -7957,7 +8069,7 @@
       </c>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>63</v>
       </c>
@@ -7966,7 +8078,7 @@
       </c>
       <c r="C21" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>10148</v>
+        <v>18525</v>
       </c>
       <c r="D21" s="13">
         <v>5</v>
